--- a/data/trans_bre/POLIPATOLOGIA_2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 15,81</t>
+          <t>6,67; 15,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 23,24</t>
+          <t>12,69; 23,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 19,55</t>
+          <t>10,28; 19,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 14,12</t>
+          <t>-1,92; 13,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,17; 95,34</t>
+          <t>31,81; 95,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,13; 101,5</t>
+          <t>43,82; 101,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,77; 92,13</t>
+          <t>40,83; 94,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 41,26</t>
+          <t>-4,62; 40,08</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 17,89</t>
+          <t>9,73; 18,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 17,93</t>
+          <t>9,93; 18,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 18,32</t>
+          <t>9,74; 18,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 34,78</t>
+          <t>14,9; 33,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,82; 99,11</t>
+          <t>44,72; 104,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,77; 82,44</t>
+          <t>37,57; 85,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,47; 86,0</t>
+          <t>39,27; 85,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,42; 264,76</t>
+          <t>50,87; 269,88</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 21,55</t>
+          <t>12,1; 22,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 17,64</t>
+          <t>7,99; 17,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 14,0</t>
+          <t>4,57; 13,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 47,3</t>
+          <t>9,27; 44,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,15; 120,39</t>
+          <t>53,16; 125,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,18; 89,57</t>
+          <t>32,66; 91,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 72,18</t>
+          <t>18,93; 69,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,84; 159,72</t>
+          <t>27,72; 144,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 16,42</t>
+          <t>9,26; 16,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,87</t>
+          <t>9,21; 17,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,15</t>
+          <t>6,04; 14,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 28,78</t>
+          <t>10,75; 25,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,14; 89,59</t>
+          <t>42,97; 91,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,43; 75,83</t>
+          <t>32,92; 74,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,34; 60,92</t>
+          <t>20,97; 61,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,64; 90,2</t>
+          <t>29,21; 79,92</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,89</t>
+          <t>11,66; 15,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,66</t>
+          <t>12,2; 16,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,4</t>
+          <t>9,89; 14,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,38; 31,17</t>
+          <t>13,5; 28,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,13; 84,93</t>
+          <t>56,65; 84,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,18; 71,8</t>
+          <t>48,38; 72,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,48; 62,95</t>
+          <t>40,02; 62,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,62; 128,36</t>
+          <t>41,68; 109,04</t>
         </is>
       </c>
     </row>
